--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>lower</t>
   </si>
   <si>
     <t>low</t>
@@ -73,15 +79,6 @@
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,103 +91,124 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
@@ -551,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +580,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -688,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +762,13 @@
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,13 +812,13 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -870,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6610169491525424</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6470588235294118</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8429319371727748</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5910852713178295</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C10">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.52</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.839622641509434</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4966442953020134</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8297872340425532</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,13 +1162,13 @@
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.79375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4821428571428572</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7906976744186046</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4533333333333333</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7890625</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3376623376623377</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7887323943661971</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3293650793650794</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C17">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3</v>
+        <v>0.2546916890080429</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.225201072386059</v>
+        <v>0.14</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.14</v>
+        <v>0.09897610921501707</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.6558823529411765</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1512,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,31 +1538,31 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02976383047557425</v>
+        <v>0.03950777202072539</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D21">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F21">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2999</v>
+        <v>2966</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
         <v>26</v>
@@ -1562,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,49 +1588,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02256699576868829</v>
+        <v>0.03719723183391004</v>
       </c>
       <c r="C22">
+        <v>43</v>
+      </c>
+      <c r="D22">
         <v>48</v>
       </c>
-      <c r="D22">
-        <v>64</v>
-      </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2079</v>
+        <v>1113</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6394557823129252</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,37 +1638,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.02241379310344828</v>
+        <v>0.03074739829706717</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E23">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="F23">
-        <v>0.96</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1134</v>
+        <v>2049</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6359832635983264</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L23">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="M23">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1662,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,37 +1688,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008712487899322363</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F24">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3072</v>
+        <v>3080</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6307692307692307</v>
+        <v>0.66</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,13 +1738,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.5851063829787234</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1738,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1746,13 +1764,13 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5842696629213483</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1764,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1772,13 +1790,13 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1790,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1798,13 +1816,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1816,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1824,13 +1842,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.4657534246575342</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1842,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1850,13 +1868,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.4487179487179487</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1868,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1876,51 +1894,233 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.06521739130434782</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>387</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>0.453125</v>
+      </c>
+      <c r="L32">
         <v>29</v>
       </c>
-      <c r="K32">
-        <v>0.03213610586011342</v>
-      </c>
-      <c r="L32">
-        <v>102</v>
-      </c>
       <c r="M32">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N32">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3072</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.08116883116883117</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.07710843373493977</v>
+      </c>
+      <c r="L37">
+        <v>32</v>
+      </c>
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>0.97</v>
+      </c>
+      <c r="O37">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38">
+        <v>0.02930980144973212</v>
+      </c>
+      <c r="L38">
+        <v>93</v>
+      </c>
+      <c r="M38">
+        <v>121</v>
+      </c>
+      <c r="N38">
+        <v>0.77</v>
+      </c>
+      <c r="O38">
+        <v>0.23</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39">
+        <v>0.01395572666025024</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>94</v>
+      </c>
+      <c r="N39">
+        <v>0.31</v>
+      </c>
+      <c r="O39">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
